--- a/Assets/PSW/Excel/MoveBlock.xlsx
+++ b/Assets/PSW/Excel/MoveBlock.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\126_CodeMonster\Assets\PSW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\126_CodeMonster\Assets\PSW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -381,8 +381,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>